--- a/ManageSYS/templates/质量/再造梗丝产品过程检测报告.xlsx
+++ b/ManageSYS/templates/质量/再造梗丝产品过程检测报告.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,45 +14,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>检查类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测日期：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再造梗丝产品过程检测报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>评分：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班组：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测日期：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再造梗丝产品过程检测报告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过程检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -65,22 +57,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -126,34 +115,34 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -163,21 +152,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,189 +476,185 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="4" max="4" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="5"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="5"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="5"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="5"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="5"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="5"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="5"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="5"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="6"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -673,7 +662,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A26"/>
+    <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
